--- a/laba_2_06/лаб2.6.xlsx
+++ b/laba_2_06/лаб2.6.xlsx
@@ -5,22 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialuganskaa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialuganskaa/laba_3/laba_physics/laba_2_06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680CF71-5C87-B04D-ACE6-27F7A13922D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE452E13-6861-FC49-8316-1933E60D8FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{1FBEFBA6-0A9F-8A42-9D37-C34BF96F064B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист2!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист2!$F$2:$F$20</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Лист2!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Лист2!$F$2:$F$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>В, Т</t>
   </si>
@@ -96,6 +90,32 @@
   </si>
   <si>
     <t>μ_0</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>=</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -106,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +153,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -208,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -227,7 +262,6 @@
       <alignment horizontal="left" indent="14"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,7 +599,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,7 +609,7 @@
     <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -595,134 +629,140 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="15">
-        <v>6.4</v>
+      <c r="C2" s="3">
+        <v>6.8</v>
       </c>
       <c r="D2" s="1">
-        <f>B2*$A$25</f>
-        <v>3.4557519189487729</v>
+        <f>B2*$I$2</f>
+        <v>114.7</v>
       </c>
       <c r="E2" s="1">
         <f>C2*$B$25/2</f>
-        <v>0.16000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="F2" s="1">
         <f>E2/(D2*$J$25)</f>
-        <v>36844.066821132408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1179.4394226913073</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C3" s="15">
-        <v>6.4</v>
+      <c r="B3" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.8</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D20" si="0">B3*$A$25</f>
-        <v>3.0410616886749202</v>
+        <f t="shared" ref="D3:D20" si="0">B3*$I$2</f>
+        <v>110.11200000000001</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E20" si="1">C3*$B$25/2</f>
-        <v>0.16000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F20" si="2">E3/(D3*$J$25)</f>
-        <v>41868.25775128683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1228.5827319701118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="C4" s="15">
-        <v>6.4</v>
+      <c r="B4" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.8</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>2.9719466502959446</v>
+        <v>105.524</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>42841.938164107451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1281.9993724905512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C5" s="15">
-        <v>6.2</v>
+      <c r="B5" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.4</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>2.8682740927274817</v>
+        <v>98.641999999999996</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>0.15500000000000003</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>43003.240642134966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1290.7681780479425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>8</v>
       </c>
-      <c r="C6" s="15">
-        <v>6.2</v>
+      <c r="C6" s="3">
+        <v>6.4</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>2.7646015351590183</v>
+        <v>91.76</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>0.15500000000000003</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>44615.862166215025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1387.575791401538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>2.2807962665061901</v>
+        <v>82.584000000000003</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
@@ -730,22 +770,22 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>52335.322189108541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1445.3914493766019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>2.2116812281272149</v>
+        <v>77.996000000000009</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
@@ -753,137 +793,137 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>53970.801007518174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1530.4144758105197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>5.8</v>
+      <c r="B9" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>2.1425661897482393</v>
+        <v>73.408000000000001</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>0.14499999999999999</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>53854.734768792317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1517.6610218454318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="15">
-        <v>4.8</v>
+      <c r="C10" s="3">
+        <v>5.6</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>2.0734511513692637</v>
+        <v>68.820000000000007</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>46055.083526415496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1618.8384233017939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C11" s="15">
-        <v>4.5999999999999996</v>
+      <c r="B11" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.5896458827164355</v>
+        <v>61.938000000000009</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>0.11499999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>57568.854408019382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1670.2301192796285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C12" s="15">
-        <v>4.4000000000000004</v>
+      <c r="B12" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.8</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1.5205308443374601</v>
+        <v>55.056000000000004</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>0.11000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>57568.85440801939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1734.4697392519222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C13" s="15">
-        <v>4.2</v>
+      <c r="B13" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1.4859733251479723</v>
+        <v>52.762</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>0.10500000000000001</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>56230.043840391023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1659.0580114583606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="3">
         <v>4</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>1.3823007675795091</v>
+        <v>45.88</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
@@ -891,114 +931,114 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>57568.854408019382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1734.4697392519224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="C15" s="15">
-        <v>2.8</v>
+      <c r="B15" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.6</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>0.96761053730565638</v>
+        <v>41.292000000000002</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>6.9999999999999993E-2</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>57568.854408019375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1734.4697392519224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="C16" s="15">
-        <v>2.6</v>
+      <c r="B16" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0.89849549892668101</v>
+        <v>36.704000000000001</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>6.5000000000000002E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>57568.854408019375</v>
+        <v>1734.4697392519226</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2.4</v>
+      <c r="B17" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.8</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>0.82938046054770542</v>
+        <v>32.116</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>57568.854408019382</v>
+        <v>1734.4697392519222</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2.2000000000000002</v>
+      <c r="B18" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.4</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>0.76026542216873005</v>
+        <v>27.528000000000002</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>5.5000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>57568.85440801939</v>
+        <v>1734.4697392519222</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>0.69115038378975457</v>
+        <v>22.94</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
@@ -1006,30 +1046,30 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>57568.854408019382</v>
+        <v>1734.4697392519224</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1.8</v>
+      <c r="B20" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.8</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>0.62203534541077909</v>
+        <v>9.1760000000000002</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>4.5000000000000005E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>57568.85440801939</v>
+        <v>1734.4697392519226</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1109,7 @@
         <f>(E25*E27)/2*PI()*H25*C25</f>
         <v>0.34557519189487729</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="1">
         <f>(D25*F25*G25)/(I25*F27)</f>
         <v>0.05</v>
       </c>
